--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>dikte</t>
+  </si>
+  <si>
+    <t>breedte</t>
+  </si>
+  <si>
+    <t>lengte</t>
+  </si>
+  <si>
+    <t>balk</t>
+  </si>
+  <si>
+    <t>blok</t>
+  </si>
+  <si>
+    <t>plank</t>
+  </si>
+  <si>
+    <t>scharnier</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="0" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -39,119 +83,167 @@
   </fills>
   <borders count="5">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -441,278 +533,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dikte</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>breedte</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lengte</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>36</v>
+      <c r="D2" s="1">
+        <v>65.6</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>75.6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>115.3</v>
       </c>
-      <c r="E4" t="n">
-        <v>24</v>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>241.6</v>
       </c>
-      <c r="E5" t="n">
-        <v>60</v>
+      <c r="E5">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>blok</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>2.2</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>7.5</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>256</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="D8" s="1">
         <v>244.6</v>
       </c>
-      <c r="E8" t="n">
-        <v>24</v>
+      <c r="E8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>256</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>16.6</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>256</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="D11" s="1">
         <v>245.6</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>256</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>244.6</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>245.6</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
         <v>256</v>
       </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="E16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17">
         <v>6</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
-      <c r="D14" s="1" t="n">
-        <v>244.6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n">
-        <v>245.6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="E16" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>scharnier</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>2</v>
       </c>
     </row>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>65.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>75.59999999999999</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -517,7 +517,7 @@
         <v>115.3</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n">
-        <v>241.6</v>
+        <v>235.6</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -563,7 +563,7 @@
         <v>7.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -573,23 +573,21 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>12.8</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>244.6</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n">
-        <v>15</v>
-      </c>
+      <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -602,7 +600,7 @@
         <v>16.6</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -612,13 +610,13 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>245.6</v>
+        <v>101.9</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -626,23 +624,21 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>256</v>
+        <v>244.6</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n">
-        <v>20</v>
-      </c>
+      <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>101.9</v>
+        <v>245.6</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -650,81 +646,59 @@
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n">
-        <v>244.6</v>
+        <v>250</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D15" s="1" t="n">
-        <v>245.6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="D16" s="1" t="n">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>scharnier</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B7:B14"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -514,7 +514,7 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>115.3</v>
+        <v>113.3</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -525,7 +525,7 @@
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n">
-        <v>235.6</v>
+        <v>239.6</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -573,50 +573,50 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>244.6</v>
+        <v>250</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>17</v>
+      </c>
       <c r="D9" s="1" t="n">
-        <v>250</v>
+        <v>234.6</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n">
-        <v>16.6</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>250</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n">
-        <v>20</v>
-      </c>
+      <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n">
-        <v>101.9</v>
+        <v>234.6</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -624,7 +624,7 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>244.6</v>
+        <v>235.6</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -635,70 +635,58 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>245.6</v>
+        <v>250</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D14" s="1" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A7:A13"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B7:B13"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>74</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>80</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -514,10 +514,10 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>113.3</v>
+        <v>93.3</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n">
-        <v>239.6</v>
+        <v>184.6</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -563,7 +563,7 @@
         <v>7.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -576,7 +576,7 @@
         <v>14.1</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -586,26 +586,26 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>17</v>
+        <v>14.8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>234.6</v>
+        <v>194.6</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>97.40000000000001</v>
+        <v>195</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -613,21 +613,23 @@
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n">
-        <v>234.6</v>
+        <v>195.6</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
+      <c r="C12" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="D12" s="1" t="n">
-        <v>235.6</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -635,58 +637,81 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>250</v>
+        <v>194.6</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>scharnier</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E16" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>slot</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E17" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A7:A15"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B7:B15"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>69.59999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>75.59999999999999</v>
+        <v>45.6</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>93.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -525,10 +525,10 @@
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n">
-        <v>184.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -563,33 +563,33 @@
         <v>7.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>14.1</v>
+        <v>12.2</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>14.8</v>
+        <v>12.8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>194.6</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -598,11 +598,9 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>195</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -611,9 +609,11 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="C11" s="1" t="n">
+        <v>19.8</v>
+      </c>
       <c r="D11" s="1" t="n">
-        <v>195.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -626,10 +626,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>79.40000000000001</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -637,10 +637,10 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>194.6</v>
+        <v>95</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -648,70 +648,59 @@
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n">
-        <v>195</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D15" s="1" t="n">
-        <v>195.6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B7:B14"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>39.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>45.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>84.59999999999999</v>
+        <v>127.8666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,10 @@
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n">
-        <v>89.59999999999999</v>
+        <v>184.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -563,44 +563,46 @@
         <v>7.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>95</v>
+        <v>394.6</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
+      <c r="C10" s="1" t="n">
+        <v>17.8</v>
+      </c>
       <c r="D10" s="1" t="n">
-        <v>95.59999999999999</v>
+        <v>195</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -609,11 +611,9 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n">
-        <v>94.59999999999999</v>
+        <v>395.6</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -626,10 +626,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -637,10 +637,10 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -648,59 +648,70 @@
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n">
-        <v>95.59999999999999</v>
+        <v>394.6</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>scharnier</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>10</v>
-      </c>
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n">
-        <v>5</v>
+        <v>395.6</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E17" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A7:A15"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B7:B15"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>75.59999999999999</v>
+        <v>127.8666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -514,18 +514,26 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>127.8666666666667</v>
+        <v>190.6</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="D5" s="1" t="n">
-        <v>184.6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -534,49 +542,43 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>7.5</v>
+        <v>11.4</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>195</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>11.4</v>
+        <v>14.8</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>195</v>
+        <v>394.6</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -586,23 +588,21 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>14.8</v>
+        <v>17.8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>394.6</v>
+        <v>195</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>195</v>
+        <v>395.6</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -611,25 +611,25 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="C11" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="D11" s="1" t="n">
-        <v>395.6</v>
+        <v>110.5</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n">
-        <v>20</v>
-      </c>
+      <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>110.5</v>
+        <v>195</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -637,10 +637,10 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>195</v>
+        <v>394.6</v>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -648,70 +648,59 @@
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n">
-        <v>394.6</v>
+        <v>395.6</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D15" s="1" t="n">
-        <v>395.6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -495,7 +495,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>127.8666666666667</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>190.6</v>
+        <v>93.3</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -552,23 +552,23 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>11.4</v>
+        <v>14.1</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -578,10 +578,10 @@
         <v>14.8</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>394.6</v>
+        <v>194.6</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         <v>17.8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -602,7 +602,7 @@
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>395.6</v>
+        <v>195.6</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -615,10 +615,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>110.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -626,10 +626,10 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="E12" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -637,10 +637,10 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>394.6</v>
+        <v>194.6</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -648,7 +648,7 @@
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n">
-        <v>395.6</v>
+        <v>195.6</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -495,7 +495,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>90.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>93.3</v>
+        <v>190.6</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -565,7 +565,7 @@
         <v>14.1</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -581,7 +581,7 @@
         <v>194.6</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         <v>17.8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -626,10 +626,10 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>95</v>
+        <v>194.6</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -637,10 +637,10 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>194.6</v>
+        <v>195</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>69.59999999999999</v>
+        <v>37.8</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>93.3</v>
+        <v>87.8</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -514,10 +514,10 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>190.6</v>
+        <v>290.8</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -546,26 +546,26 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>14.1</v>
+        <v>11.9</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>195</v>
+        <v>93.8</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -574,35 +574,35 @@
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="n">
-        <v>194.6</v>
+        <v>297</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>17.8</v>
+        <v>12.2</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
+      <c r="C10" s="1" t="n">
+        <v>18.9</v>
+      </c>
       <c r="D10" s="1" t="n">
-        <v>195.6</v>
+        <v>92.8</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -615,10 +615,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>79.40000000000001</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -626,7 +626,7 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>194.6</v>
+        <v>93.8</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -637,70 +637,59 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D14" s="1" t="n">
-        <v>195.6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A6:A13"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B6:B13"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -503,7 +503,7 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>87.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -514,7 +514,7 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>290.8</v>
+        <v>690.6</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -562,21 +562,23 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>93.8</v>
+        <v>695</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
+      <c r="C8" s="1" t="n">
+        <v>12.8</v>
+      </c>
       <c r="D8" s="1" t="n">
-        <v>297</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -585,24 +587,22 @@
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>92.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -626,7 +626,7 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -637,7 +637,7 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -688,7 +688,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>39.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>89.59999999999999</v>
+        <v>127.8666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>690.6</v>
+        <v>290.6</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -552,44 +552,46 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>12.2</v>
+        <v>21.4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>12.8</v>
+        <v>34.8</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>95.59999999999999</v>
+        <v>394.6</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>37.8</v>
+      </c>
       <c r="D9" s="1" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -598,11 +600,9 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>94.59999999999999</v>
+        <v>395.6</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -612,13 +612,13 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -626,70 +626,59 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>95.59999999999999</v>
+        <v>295</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D13" s="1" t="n">
-        <v>695</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A6:A12"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B6:B12"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -503,7 +503,7 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>127.8666666666667</v>
+        <v>127.3313333333333</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -514,7 +514,7 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>7.5</v>
@@ -575,10 +575,10 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>34.8</v>
+        <v>33.997</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>394.6</v>
+        <v>392.994</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -588,7 +588,7 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>295</v>
@@ -602,7 +602,7 @@
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>

--- a/stuklijst.xlsx
+++ b/stuklijst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>127.3313333333333</v>
+        <v>89.497</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>288.994</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -549,23 +549,23 @@
         <v>3.003</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>7.5</v>
+        <v>8.003</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>295</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>21.4</v>
+        <v>11.997</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>295</v>
+        <v>192.994</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -575,23 +575,23 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>33.997</v>
+        <v>13.7</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>392.994</v>
+        <v>295</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>36.997</v>
+        <v>16.997</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -602,7 +602,7 @@
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>393.994</v>
+        <v>295</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -612,13 +612,13 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -626,59 +626,81 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
+        <v>192.994</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n">
+        <v>193.994</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="E12" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>scharnier</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>slot</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
-        <v>3</v>
+      <c r="E16" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A6:A14"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B6:B14"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
